--- a/Table/Datas/SceneData.xlsx
+++ b/Table/Datas/SceneData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210C9D33-2F3F-40D1-9C93-5B125B10C3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BF683E-3E5B-4087-9F10-1C8D4405D82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22755" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26265" yWindow="1740" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -60,6 +60,14 @@
   <si>
     <t>/Game/System/Experience/GameScene/DA_GameSceneData.DA_GameSceneData</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Audio/Sounds/BGM/desolate-world-121196.desolate-world-121196</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGMPath</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -432,13 +440,13 @@
   <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="79.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -448,6 +456,9 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -456,6 +467,9 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -464,6 +478,9 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -472,6 +489,9 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -479,6 +499,9 @@
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">

--- a/Table/Datas/SceneData.xlsx
+++ b/Table/Datas/SceneData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BF683E-3E5B-4087-9F10-1C8D4405D82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A3392-D705-4516-8ABA-23581D3F97DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26265" yWindow="1740" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25410" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,16 +58,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>/Game/System/Experience/GameScene/DA_GameSceneData.DA_GameSceneData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>/Game/Audio/Sounds/BGM/desolate-world-121196.desolate-world-121196</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BGMPath</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ShooterGame/Experiences/DA_GameSceneData.DA_GameSceneData</t>
   </si>
 </sst>
 </file>
@@ -440,7 +439,7 @@
   <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -479,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -498,10 +497,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">

--- a/Table/Datas/SceneData.xlsx
+++ b/Table/Datas/SceneData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A3392-D705-4516-8ABA-23581D3F97DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8746FFB-C22E-4BFD-A97E-A952749D33C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25410" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>/ShooterGame/Experiences/DA_GameSceneData.DA_GameSceneData</t>
+  </si>
+  <si>
+    <t>/Game/System/Experience/Lobby/DA_LobbySceneData.DA_LobbySceneData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -439,7 +443,7 @@
   <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -504,6 +508,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="E7" t="s">
         <v>5</v>
       </c>
